--- a/data/input/辅助诊断报告代理商模板统计.xlsx
+++ b/data/input/辅助诊断报告代理商模板统计.xlsx
@@ -1448,8 +1448,8 @@
   <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="15"/>
